--- a/docs/sprint_2/Progress.xlsx
+++ b/docs/sprint_2/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -63,9 +63,6 @@
     <t>TA Question List Page(assign)</t>
   </si>
   <si>
-    <t>Chenxi</t>
-  </si>
-  <si>
     <t>Home Page</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Need to communicate with Bi</t>
   </si>
   <si>
-    <t>Need to communicate with Chenxi</t>
-  </si>
-  <si>
     <t>Student Class List Page(join class)</t>
   </si>
   <si>
@@ -88,16 +82,41 @@
   </si>
   <si>
     <t>Create Question Page</t>
+  </si>
+  <si>
+    <t>working on</t>
+  </si>
+  <si>
+    <t>Photo! Photo!! Photo!!!</t>
+  </si>
+  <si>
+    <t>TA Question List Page(delete question)</t>
+  </si>
+  <si>
+    <t>Depend on TA Question List(Teng, Deqing)</t>
+  </si>
+  <si>
+    <t>Chengxi</t>
+  </si>
+  <si>
+    <t>Need to communicate with Chengxi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -445,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -456,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -467,10 +487,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -481,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -514,67 +534,67 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -583,7 +603,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/sprint_2/Progress.xlsx
+++ b/docs/sprint_2/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Student Question List Page(add to question)</t>
-  </si>
-  <si>
-    <t>Create Question Page</t>
   </si>
   <si>
     <t>working on</t>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,10 +498,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -512,10 +509,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -534,7 +531,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -542,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -553,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -575,7 +572,7 @@
         <v>0.1</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
@@ -583,18 +580,18 @@
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -602,24 +599,13 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.75">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+    </row>
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sprint_2/Progress.xlsx
+++ b/docs/sprint_2/Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Need to communicate with Chengxi</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -484,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -501,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -509,10 +515,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -520,10 +526,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -539,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -550,10 +556,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -569,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -580,10 +586,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
